--- a/Макеты/ВА_ИмпортExcel_Меркурий_En.xlsx
+++ b/Макеты/ВА_ИмпортExcel_Меркурий_En.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tests\VA-Tests-Perform-En-Budget\Макеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44355AD3-5D06-4CC5-9988-722BE399D7B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -49,12 +48,6 @@
     <t>Software products</t>
   </si>
   <si>
-    <t>Software implementation</t>
-  </si>
-  <si>
-    <t>Software sale</t>
-  </si>
-  <si>
     <t>1C:ERP. Corporate performance management</t>
   </si>
   <si>
@@ -137,12 +130,18 @@
   </si>
   <si>
     <t>2C:Corporation</t>
+  </si>
+  <si>
+    <t>3Software sale</t>
+  </si>
+  <si>
+    <t>2Software implementation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -677,7 +676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -685,7 +684,7 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -696,7 +695,7 @@
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -715,36 +714,36 @@
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="I4" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N4" s="15"/>
     </row>
@@ -758,27 +757,27 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -822,7 +821,7 @@
     </row>
     <row r="8" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -886,7 +885,7 @@
     </row>
     <row r="11" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -964,7 +963,7 @@
     </row>
     <row r="14" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -986,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1018,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -1064,7 +1063,7 @@
     </row>
     <row r="18" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -1086,19 +1085,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="6">
@@ -1126,19 +1125,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="6">
@@ -1166,19 +1165,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H21"/>
       <c r="I21" s="6">
@@ -1206,19 +1205,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="G22" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H22"/>
       <c r="I22" s="6">
@@ -1246,19 +1245,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H23"/>
       <c r="I23" s="6">
@@ -1300,7 +1299,7 @@
     </row>
     <row r="25" spans="1:14" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -1322,19 +1321,19 @@
         <v>6</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>0</v>
@@ -1364,19 +1363,19 @@
         <v>6</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>0</v>
@@ -1406,19 +1405,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>0</v>
@@ -1448,19 +1447,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="G29" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>0</v>
@@ -1490,19 +1489,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>0</v>
